--- a/defaults/electrode_mapping_short_cables.xlsx
+++ b/defaults/electrode_mapping_short_cables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S\Documents\Projects\NeuraViPeR\NeuraViPeR_once_worked\NeuraViPeR\ViperBoxInterface\defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8445515B-46A4-4E7C-9A7E-65B2D18D65C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A9EFD1-F442-4EE9-8D32-D40FF2AE5BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23295" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{BBC9133A-47E8-4183-A3D2-0E13C727BDE7}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BBC9133A-47E8-4183-A3D2-0E13C727BDE7}"/>
   </bookViews>
   <sheets>
     <sheet name="chan2el" sheetId="1" r:id="rId1"/>
@@ -3225,7 +3225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B17CD0B-AC8F-4ECC-930B-3416D5CCEB1D}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -7608,7 +7608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2058E97E-5E04-473E-AD34-2280327FCF86}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -12244,6 +12244,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="f40b0abf-00a2-4b5b-b98d-06c28878d409">
+      <UserInfo>
+        <DisplayName>Piotr Bejm (IC RESOURCES)</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="82955996-2c56-4dc5-a205-5349b3b0490a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="eddb54b3-0260-4a74-8bba-cc772719b91b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AE2369821C535B4A926EDE6FD95680EF" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="25f7092aaaccfe28f06aaa49dbc1c38a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="82955996-2c56-4dc5-a205-5349b3b0490a" xmlns:ns3="f40b0abf-00a2-4b5b-b98d-06c28878d409" xmlns:ns4="eddb54b3-0260-4a74-8bba-cc772719b91b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30857444423b66cafcc1ac54cc211eeb" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="82955996-2c56-4dc5-a205-5349b3b0490a"/>
@@ -12491,34 +12518,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="f40b0abf-00a2-4b5b-b98d-06c28878d409">
-      <UserInfo>
-        <DisplayName>Piotr Bejm (IC RESOURCES)</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="82955996-2c56-4dc5-a205-5349b3b0490a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="eddb54b3-0260-4a74-8bba-cc772719b91b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC23E6A2-90B8-4860-9A82-94B40C6384C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29D9ED97-9FFF-4588-8DC9-F5F025F5C220}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f40b0abf-00a2-4b5b-b98d-06c28878d409"/>
+    <ds:schemaRef ds:uri="82955996-2c56-4dc5-a205-5349b3b0490a"/>
+    <ds:schemaRef ds:uri="eddb54b3-0260-4a74-8bba-cc772719b91b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8054A871-991D-4D18-AE98-F9DEB4B6F288}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12536,24 +12556,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29D9ED97-9FFF-4588-8DC9-F5F025F5C220}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f40b0abf-00a2-4b5b-b98d-06c28878d409"/>
-    <ds:schemaRef ds:uri="82955996-2c56-4dc5-a205-5349b3b0490a"/>
-    <ds:schemaRef ds:uri="eddb54b3-0260-4a74-8bba-cc772719b91b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC23E6A2-90B8-4860-9A82-94B40C6384C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>